--- a/academycity/data/training/datasets/excel/tests/112_2_Fin_CHARLIE_20230807.xlsx
+++ b/academycity/data/training/datasets/excel/tests/112_2_Fin_CHARLIE_20230807.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://synrgai-my.sharepoint.com/personal/noamc_syn-rg-ai_com/Documents/מסמכים/2כשם/גדוד 112/כשג/fitnes_20230807/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="435" documentId="11_C8F3E1C4ADE4F96C7471F764369EA55BAAB03EC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D97DBDD-1770-431A-AFD3-F3E82A688203}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="11_C8F3E1C4ADE4F96C7471F764369EA55BAAB03EC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01369459-EEE6-4BB5-94D9-3F0C345DF184}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -362,9 +362,6 @@
     <t xml:space="preserve">YAMBA ILUNGA JACK  </t>
   </si>
   <si>
-    <t>UVONA UMIRAMBE ALLY</t>
-  </si>
-  <si>
     <t xml:space="preserve">BILA NGOYI SIMON  </t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>KASONGO MATAMBU JC</t>
+  </si>
+  <si>
+    <t>UNOVA UMIRAMBE ALLY</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
@@ -806,7 +806,6 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,6 +892,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K174"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96:XFD96"/>
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1209,7 +1212,7 @@
     <col min="7" max="1024" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.6">
+    <row r="1" spans="1:6" ht="27.6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15">
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="4">
         <v>112542</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="4">
         <v>112363</v>
       </c>
@@ -1269,7 +1272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="4">
         <v>112442</v>
       </c>
@@ -1289,12 +1292,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="4">
         <v>112510</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="11">
         <v>49</v>
@@ -1309,12 +1312,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="4">
         <v>112413</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="11">
         <v>49</v>
@@ -1329,7 +1332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4">
         <v>112463</v>
       </c>
@@ -1349,7 +1352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="4">
         <v>112504</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:6" ht="15">
       <c r="A9" s="4">
         <v>112075</v>
       </c>
@@ -1388,13 +1391,8 @@
       <c r="F9" s="13">
         <v>20</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="15">
+    </row>
+    <row r="10" spans="1:6" ht="15">
       <c r="A10" s="4">
         <v>112088</v>
       </c>
@@ -1414,7 +1412,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15">
+    <row r="11" spans="1:6" ht="15">
       <c r="A11" s="4">
         <v>112529</v>
       </c>
@@ -1434,7 +1432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:6">
       <c r="A12" s="4">
         <v>112362</v>
       </c>
@@ -1454,7 +1452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
+    <row r="13" spans="1:6" ht="15">
       <c r="A13" s="4">
         <v>112374</v>
       </c>
@@ -1474,12 +1472,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15">
+    <row r="14" spans="1:6" ht="15">
       <c r="A14" s="4">
         <v>112394</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="11">
         <v>44</v>
@@ -1494,12 +1492,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15">
+    <row r="15" spans="1:6" ht="15">
       <c r="A15" s="4">
         <v>112407</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="11">
         <v>54</v>
@@ -1514,12 +1512,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="4">
         <v>112417</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="11">
         <v>47</v>
@@ -1539,7 +1537,7 @@
         <v>112311</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="11">
         <v>54</v>
@@ -1559,7 +1557,7 @@
         <v>112427</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="11">
         <v>45</v>
@@ -1599,7 +1597,7 @@
         <v>112391</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="11">
         <v>54</v>
@@ -1639,7 +1637,7 @@
         <v>112443</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="11">
         <v>46</v>
@@ -1679,7 +1677,7 @@
         <v>112388</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="11">
         <v>47</v>
@@ -1699,7 +1697,7 @@
         <v>112499</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="11">
         <v>46</v>
@@ -1919,7 +1917,7 @@
         <v>112411</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C36" s="11">
         <v>50</v>
@@ -1954,12 +1952,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="19" customFormat="1">
+    <row r="38" spans="1:6">
       <c r="A38" s="4">
         <v>112435</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C38" s="11">
         <v>50</v>
@@ -2019,7 +2017,7 @@
         <v>112423</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="11">
         <v>49</v>
@@ -2039,7 +2037,7 @@
         <v>112371</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="11">
         <v>52</v>
@@ -2099,7 +2097,7 @@
         <v>112405</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="11">
         <v>49</v>
@@ -2179,7 +2177,7 @@
         <v>112367</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="11">
         <v>59</v>
@@ -2239,7 +2237,7 @@
         <v>112524</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C52" s="11">
         <v>45</v>
@@ -2339,7 +2337,7 @@
         <v>112471</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="11">
         <v>48</v>
@@ -2379,7 +2377,7 @@
         <v>112375</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59" s="11">
         <v>51</v>
@@ -2439,7 +2437,7 @@
         <v>112254</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C62" s="11">
         <v>56</v>
@@ -2479,7 +2477,7 @@
         <v>112398</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="11">
         <v>47</v>
@@ -2499,7 +2497,7 @@
         <v>112404</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C65" s="11">
         <v>49</v>
@@ -2519,7 +2517,7 @@
         <v>112421</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="11">
         <v>46</v>
@@ -2659,7 +2657,7 @@
         <v>112416</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="11">
         <v>51</v>
@@ -2739,7 +2737,7 @@
         <v>112399</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" s="11">
         <v>51</v>
@@ -2939,7 +2937,7 @@
         <v>112243</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C87" s="11">
         <v>46</v>
@@ -2999,7 +2997,7 @@
         <v>112380</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C90" s="11">
         <v>57</v>
@@ -3019,7 +3017,7 @@
         <v>112389</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C91" s="11">
         <v>58</v>
@@ -3119,7 +3117,7 @@
         <v>112397</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C96" s="11">
         <v>48</v>
@@ -3259,7 +3257,7 @@
         <v>112392</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="11">
         <v>49</v>
@@ -3479,7 +3477,7 @@
         <v>112382</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C114" s="11">
         <v>49</v>
@@ -3499,7 +3497,7 @@
         <v>112540</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="11">
         <v>50</v>
@@ -3519,7 +3517,7 @@
         <v>112509</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C116" s="11">
         <v>49</v>
@@ -3539,7 +3537,7 @@
         <v>112505</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C117" s="11">
         <v>59</v>
@@ -3559,7 +3557,7 @@
         <v>112376</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C118" s="11">
         <v>58</v>
@@ -3639,7 +3637,7 @@
         <v>112368</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C122" s="11">
         <v>58</v>
@@ -3699,7 +3697,7 @@
         <v>112383</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" s="11">
         <v>46</v>
@@ -3779,7 +3777,7 @@
         <v>112379</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C129" s="11">
         <v>56</v>
@@ -3819,7 +3817,7 @@
         <v>112403</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="11">
         <v>51</v>
@@ -3859,7 +3857,7 @@
         <v>112381</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C133" s="11">
         <v>59</v>
@@ -3879,7 +3877,7 @@
         <v>112406</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C134" s="11">
         <v>55</v>
@@ -3899,7 +3897,7 @@
         <v>112418</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C135" s="11">
         <v>58</v>
@@ -3959,7 +3957,7 @@
         <v>112445</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C138" s="11">
         <v>55</v>
@@ -4119,7 +4117,7 @@
         <v>112538</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C146" s="11">
         <v>50</v>
@@ -4159,7 +4157,7 @@
         <v>112466</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C148" s="11">
         <v>51</v>
@@ -4178,8 +4176,8 @@
       <c r="A149" s="4">
         <v>112477</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>107</v>
+      <c r="B149" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="C149" s="11">
         <v>53</v>
@@ -4199,7 +4197,7 @@
         <v>112475</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C150" s="11">
         <v>51</v>
@@ -4219,7 +4217,7 @@
         <v>112498</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" s="11">
         <v>54</v>
@@ -4239,7 +4237,7 @@
         <v>112460</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152" s="11">
         <v>50</v>
@@ -4259,7 +4257,7 @@
         <v>112387</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153" s="11">
         <v>53</v>
@@ -4279,7 +4277,7 @@
         <v>112395</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154" s="11">
         <v>47</v>
@@ -4299,7 +4297,7 @@
         <v>112522</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C155" s="11">
         <v>53</v>
@@ -4319,7 +4317,7 @@
         <v>112425</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C156" s="11">
         <v>49</v>
@@ -4339,7 +4337,7 @@
         <v>112493</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C157" s="11">
         <v>52</v>
@@ -4359,7 +4357,7 @@
         <v>112484</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C158" s="11">
         <v>50</v>
@@ -4379,7 +4377,7 @@
         <v>112420</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C159" s="11">
         <v>48</v>
@@ -4399,7 +4397,7 @@
         <v>112533</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C160" s="11">
         <v>64</v>
@@ -4419,7 +4417,7 @@
         <v>112419</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C161" s="11">
         <v>58</v>
@@ -4439,7 +4437,7 @@
         <v>112409</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C162" s="11">
         <v>52</v>
@@ -4459,7 +4457,7 @@
         <v>112489</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C163" s="11">
         <v>57</v>
@@ -4479,7 +4477,7 @@
         <v>112469</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C164" s="11">
         <v>56</v>
@@ -4499,7 +4497,7 @@
         <v>112370</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="10"/>
@@ -4511,7 +4509,7 @@
         <v>112377</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="10"/>
@@ -4523,7 +4521,7 @@
         <v>112426</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="9"/>
@@ -4535,7 +4533,7 @@
         <v>112539</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="9"/>
@@ -4547,7 +4545,7 @@
         <v>112459</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="9"/>
@@ -4559,7 +4557,7 @@
         <v>112348</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C170" s="11"/>
       <c r="D170" s="9"/>
@@ -4571,7 +4569,7 @@
         <v>112090</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C171" s="11"/>
       <c r="D171" s="9"/>
@@ -4583,7 +4581,7 @@
         <v>112410</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C172" s="11"/>
       <c r="D172" s="9"/>
@@ -4595,7 +4593,7 @@
         <v>112513</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C173" s="11"/>
       <c r="D173" s="9"/>
@@ -4607,7 +4605,7 @@
         <v>112274</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C174" s="11"/>
       <c r="D174" s="9"/>
